--- a/Code/Results/Cases/Case_3_205/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_3_205/res_line/pl_mw.xlsx
@@ -421,43 +421,43 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>1.049055524434436</v>
+        <v>0.6282199854184967</v>
       </c>
       <c r="C2">
-        <v>0.2995446241054083</v>
+        <v>0.2173507237143042</v>
       </c>
       <c r="D2">
-        <v>0.07485177558316991</v>
+        <v>0.09392477947358202</v>
       </c>
       <c r="E2">
         <v>0</v>
       </c>
       <c r="F2">
-        <v>1.779813326223717</v>
+        <v>2.806569869732797</v>
       </c>
       <c r="G2">
-        <v>0.0008337682482722661</v>
+        <v>0.002553379781415717</v>
       </c>
       <c r="H2">
         <v>0</v>
       </c>
       <c r="I2">
-        <v>0.8526104239189891</v>
+        <v>1.427880147032816</v>
       </c>
       <c r="J2">
-        <v>0.1731593518285592</v>
+        <v>0.2597227798853083</v>
       </c>
       <c r="K2">
-        <v>1.325323426412922</v>
+        <v>0.8378658212816106</v>
       </c>
       <c r="L2">
         <v>0</v>
       </c>
       <c r="M2">
-        <v>0.4614436853882395</v>
+        <v>0.4022742031768729</v>
       </c>
       <c r="N2">
-        <v>1.549029932460186</v>
+        <v>2.864061514756749</v>
       </c>
       <c r="O2">
         <v>0</v>
@@ -468,43 +468,43 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>0.9123937241138265</v>
+        <v>0.5944919923339569</v>
       </c>
       <c r="C3">
-        <v>0.2627801663757907</v>
+        <v>0.2088828853370615</v>
       </c>
       <c r="D3">
-        <v>0.06579046413376943</v>
+        <v>0.09216139151788383</v>
       </c>
       <c r="E3">
         <v>0</v>
       </c>
       <c r="F3">
-        <v>1.69134168288636</v>
+        <v>2.797617076168777</v>
       </c>
       <c r="G3">
-        <v>0.0008397409543148332</v>
+        <v>0.002557186062454499</v>
       </c>
       <c r="H3">
         <v>0</v>
       </c>
       <c r="I3">
-        <v>0.8281556655015692</v>
+        <v>1.427821499067974</v>
       </c>
       <c r="J3">
-        <v>0.1599797857253691</v>
+        <v>0.2578531681327547</v>
       </c>
       <c r="K3">
-        <v>1.154815595783163</v>
+        <v>0.7965394483557304</v>
       </c>
       <c r="L3">
         <v>0</v>
       </c>
       <c r="M3">
-        <v>0.4063494972402495</v>
+        <v>0.3901519390343822</v>
       </c>
       <c r="N3">
-        <v>1.584417308214597</v>
+        <v>2.880017338199572</v>
       </c>
       <c r="O3">
         <v>0</v>
@@ -515,43 +515,43 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>0.8294415136396651</v>
+        <v>0.5741370176503438</v>
       </c>
       <c r="C4">
-        <v>0.2406066471508694</v>
+        <v>0.2038141067736348</v>
       </c>
       <c r="D4">
-        <v>0.06028104933299261</v>
+        <v>0.0911230147626938</v>
       </c>
       <c r="E4">
         <v>0</v>
       </c>
       <c r="F4">
-        <v>1.639794587619164</v>
+        <v>2.793359471321679</v>
       </c>
       <c r="G4">
-        <v>0.0008435215192836278</v>
+        <v>0.002559647669602131</v>
       </c>
       <c r="H4">
         <v>0</v>
       </c>
       <c r="I4">
-        <v>0.8144583155763527</v>
+        <v>1.428365173017546</v>
       </c>
       <c r="J4">
-        <v>0.1521391805384837</v>
+        <v>0.2568267508066668</v>
       </c>
       <c r="K4">
-        <v>1.051483061133808</v>
+        <v>0.7716481230440593</v>
       </c>
       <c r="L4">
         <v>0</v>
       </c>
       <c r="M4">
-        <v>0.3730420144930875</v>
+        <v>0.3829343429189862</v>
       </c>
       <c r="N4">
-        <v>1.607869138632729</v>
+        <v>2.890566548421909</v>
       </c>
       <c r="O4">
         <v>0</v>
@@ -562,43 +562,43 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>0.7958503542944584</v>
+        <v>0.5659313498464655</v>
       </c>
       <c r="C5">
-        <v>0.2316606690924345</v>
+        <v>0.2017812931034939</v>
       </c>
       <c r="D5">
-        <v>0.05804821846380293</v>
+        <v>0.09071106263086648</v>
       </c>
       <c r="E5">
         <v>0</v>
       </c>
       <c r="F5">
-        <v>1.619443272259616</v>
+        <v>2.791936063630473</v>
       </c>
       <c r="G5">
-        <v>0.0008450913745525316</v>
+        <v>0.002560682209019101</v>
       </c>
       <c r="H5">
         <v>0</v>
       </c>
       <c r="I5">
-        <v>0.8091896216860022</v>
+        <v>1.428732437600125</v>
       </c>
       <c r="J5">
-        <v>0.1490028632105691</v>
+        <v>0.2564390376810479</v>
       </c>
       <c r="K5">
-        <v>1.009677199717402</v>
+        <v>0.7616262344729705</v>
       </c>
       <c r="L5">
         <v>0</v>
       </c>
       <c r="M5">
-        <v>0.3595868824026383</v>
+        <v>0.3800498560619801</v>
       </c>
       <c r="N5">
-        <v>1.617844225872403</v>
+        <v>2.895054509394306</v>
       </c>
       <c r="O5">
         <v>0</v>
@@ -609,43 +609,43 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>0.7902846051218546</v>
+        <v>0.5645741923147227</v>
       </c>
       <c r="C6">
-        <v>0.2301803280011114</v>
+        <v>0.2014457224513393</v>
       </c>
       <c r="D6">
-        <v>0.05767816378717328</v>
+        <v>0.09064333569096306</v>
       </c>
       <c r="E6">
         <v>0</v>
       </c>
       <c r="F6">
-        <v>1.616102273151</v>
+        <v>2.791718525948099</v>
       </c>
       <c r="G6">
-        <v>0.000845353835408123</v>
+        <v>0.002560855893673195</v>
       </c>
       <c r="H6">
         <v>0</v>
       </c>
       <c r="I6">
-        <v>0.8083331549520665</v>
+        <v>1.428802220813481</v>
       </c>
       <c r="J6">
-        <v>0.1484855048644462</v>
+        <v>0.2563765039973518</v>
       </c>
       <c r="K6">
-        <v>1.002752575527495</v>
+        <v>0.7599694481471602</v>
       </c>
       <c r="L6">
         <v>0</v>
       </c>
       <c r="M6">
-        <v>0.3573594276813381</v>
+        <v>0.3795743173129154</v>
       </c>
       <c r="N6">
-        <v>1.619525418945216</v>
+        <v>2.895811148746844</v>
       </c>
       <c r="O6">
         <v>0</v>
@@ -656,43 +656,43 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>0.8289876673422043</v>
+        <v>0.574025992052384</v>
       </c>
       <c r="C7">
-        <v>0.2404856481094555</v>
+        <v>0.2037865589960433</v>
       </c>
       <c r="D7">
-        <v>0.06025088850812921</v>
+        <v>0.09111741364767312</v>
       </c>
       <c r="E7">
         <v>0</v>
       </c>
       <c r="F7">
-        <v>1.639517527553693</v>
+        <v>2.793339013185829</v>
       </c>
       <c r="G7">
-        <v>0.0008435425715864385</v>
+        <v>0.002559661494369367</v>
       </c>
       <c r="H7">
         <v>0</v>
       </c>
       <c r="I7">
-        <v>0.8143860158221159</v>
+        <v>1.428369536165576</v>
       </c>
       <c r="J7">
-        <v>0.1520966507568104</v>
+        <v>0.2568213982333205</v>
       </c>
       <c r="K7">
-        <v>1.050918075602112</v>
+        <v>0.7715124722624864</v>
       </c>
       <c r="L7">
         <v>0</v>
       </c>
       <c r="M7">
-        <v>0.3728600928891197</v>
+        <v>0.3828952119291174</v>
       </c>
       <c r="N7">
-        <v>1.608001991911181</v>
+        <v>2.890626309221851</v>
       </c>
       <c r="O7">
         <v>0</v>
@@ -703,43 +703,43 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>1.001717775175365</v>
+        <v>0.6165171142842212</v>
       </c>
       <c r="C8">
-        <v>0.2867785582759552</v>
+        <v>0.2144038848487924</v>
       </c>
       <c r="D8">
-        <v>0.07171533308447664</v>
+        <v>0.09330758298431618</v>
       </c>
       <c r="E8">
         <v>0</v>
       </c>
       <c r="F8">
-        <v>1.748705475105382</v>
+        <v>2.803225647797134</v>
       </c>
       <c r="G8">
-        <v>0.0008358045900278367</v>
+        <v>0.002554666399363165</v>
       </c>
       <c r="H8">
         <v>0</v>
       </c>
       <c r="I8">
-        <v>0.8438934699931693</v>
+        <v>1.427739576110511</v>
       </c>
       <c r="J8">
-        <v>0.1685599949444381</v>
+        <v>0.2590529125258598</v>
       </c>
       <c r="K8">
-        <v>1.26622575751469</v>
+        <v>0.8235161855120339</v>
       </c>
       <c r="L8">
         <v>0</v>
       </c>
       <c r="M8">
-        <v>0.4423310853368321</v>
+        <v>0.398047653458633</v>
       </c>
       <c r="N8">
-        <v>1.560864257151032</v>
+        <v>2.869406893363085</v>
       </c>
       <c r="O8">
         <v>0</v>
@@ -750,43 +750,43 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>1.349447517957941</v>
+        <v>0.7026531003316165</v>
       </c>
       <c r="C9">
-        <v>0.3812566678204803</v>
+        <v>0.236264172866953</v>
       </c>
       <c r="D9">
-        <v>0.09469391858699794</v>
+        <v>0.09795286507952028</v>
       </c>
       <c r="E9">
         <v>0</v>
       </c>
       <c r="F9">
-        <v>1.986948606541731</v>
+        <v>2.832455241537758</v>
       </c>
       <c r="G9">
-        <v>0.0008214928590010407</v>
+        <v>0.002545854648941435</v>
       </c>
       <c r="H9">
         <v>0</v>
       </c>
       <c r="I9">
-        <v>0.913108036040164</v>
+        <v>1.431107684036654</v>
       </c>
       <c r="J9">
-        <v>0.2030614907528161</v>
+        <v>0.264393763386515</v>
       </c>
       <c r="K9">
-        <v>1.701146967785093</v>
+        <v>0.9293354592611252</v>
       </c>
       <c r="L9">
         <v>0</v>
       </c>
       <c r="M9">
-        <v>0.583329303244291</v>
+        <v>0.429551676701351</v>
       </c>
       <c r="N9">
-        <v>1.482842819737911</v>
+        <v>2.833768770551004</v>
       </c>
       <c r="O9">
         <v>0</v>
@@ -797,43 +797,43 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>1.612545506265548</v>
+        <v>0.7676599757377289</v>
       </c>
       <c r="C10">
-        <v>0.4537230315663692</v>
+        <v>0.252966630831736</v>
       </c>
       <c r="D10">
-        <v>0.1119802001311143</v>
+        <v>0.1015777743868398</v>
       </c>
       <c r="E10">
         <v>0</v>
       </c>
       <c r="F10">
-        <v>2.179889299648394</v>
+        <v>2.859946865173498</v>
       </c>
       <c r="G10">
-        <v>0.0008114488371992812</v>
+        <v>0.002539973966593725</v>
       </c>
       <c r="H10">
         <v>0</v>
       </c>
       <c r="I10">
-        <v>0.9722313758539585</v>
+        <v>1.436396263493876</v>
       </c>
       <c r="J10">
-        <v>0.2300945265700136</v>
+        <v>0.2689074739910922</v>
       </c>
       <c r="K10">
-        <v>2.031340150222775</v>
+        <v>1.009439611950853</v>
       </c>
       <c r="L10">
         <v>0</v>
       </c>
       <c r="M10">
-        <v>0.690792044349692</v>
+        <v>0.4537931142658991</v>
       </c>
       <c r="N10">
-        <v>1.435422234366371</v>
+        <v>2.811232565332418</v>
       </c>
       <c r="O10">
         <v>0</v>
@@ -844,43 +844,43 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>1.734414150110268</v>
+        <v>0.797609838250537</v>
       </c>
       <c r="C11">
-        <v>0.4875506192213663</v>
+        <v>0.2607061799464816</v>
       </c>
       <c r="D11">
-        <v>0.1199566044046918</v>
+        <v>0.1032725800959611</v>
       </c>
       <c r="E11">
         <v>0</v>
       </c>
       <c r="F11">
-        <v>2.272337187101456</v>
+        <v>2.873764081774809</v>
       </c>
       <c r="G11">
-        <v>0.00080696845596447</v>
+        <v>0.002537426175963868</v>
       </c>
       <c r="H11">
         <v>0</v>
       </c>
       <c r="I11">
-        <v>1.001256981019246</v>
+        <v>1.439415049255366</v>
       </c>
       <c r="J11">
-        <v>0.2428403104249668</v>
+        <v>0.2710893462819541</v>
       </c>
       <c r="K11">
-        <v>2.184584803906006</v>
+        <v>1.046397682324169</v>
       </c>
       <c r="L11">
         <v>0</v>
       </c>
       <c r="M11">
-        <v>0.7407577676543724</v>
+        <v>0.4650601367326246</v>
       </c>
       <c r="N11">
-        <v>1.416275028196594</v>
+        <v>2.801773537998471</v>
       </c>
       <c r="O11">
         <v>0</v>
@@ -891,43 +891,43 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>1.780924557125786</v>
+        <v>0.8090054539072185</v>
       </c>
       <c r="C12">
-        <v>0.5005024957489752</v>
+        <v>0.26365740315984</v>
       </c>
       <c r="D12">
-        <v>0.1229955136793421</v>
+        <v>0.1039209126181362</v>
       </c>
       <c r="E12">
         <v>0</v>
       </c>
       <c r="F12">
-        <v>2.308089982356336</v>
+        <v>2.879185067255563</v>
       </c>
       <c r="G12">
-        <v>0.0008052834012058931</v>
+        <v>0.002536479606212155</v>
       </c>
       <c r="H12">
         <v>0</v>
       </c>
       <c r="I12">
-        <v>1.012585250139928</v>
+        <v>1.440646446833604</v>
       </c>
       <c r="J12">
-        <v>0.2477387951232259</v>
+        <v>0.2719340694054182</v>
       </c>
       <c r="K12">
-        <v>2.243117176812092</v>
+        <v>1.060467433238756</v>
       </c>
       <c r="L12">
         <v>0</v>
       </c>
       <c r="M12">
-        <v>0.759855580893614</v>
+        <v>0.4693611263014006</v>
       </c>
       <c r="N12">
-        <v>1.409398914378244</v>
+        <v>2.798305789047902</v>
       </c>
       <c r="O12">
         <v>0</v>
@@ -938,43 +938,43 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>1.770890833334676</v>
+        <v>0.8065487926808714</v>
       </c>
       <c r="C13">
-        <v>0.4977064493931493</v>
+        <v>0.2630208948868358</v>
       </c>
       <c r="D13">
-        <v>0.122340173875088</v>
+        <v>0.1037809921219264</v>
       </c>
       <c r="E13">
         <v>0</v>
       </c>
       <c r="F13">
-        <v>2.300355631308719</v>
+        <v>2.878009165620711</v>
       </c>
       <c r="G13">
-        <v>0.0008056458134894457</v>
+        <v>0.002536682657912615</v>
       </c>
       <c r="H13">
         <v>0</v>
       </c>
       <c r="I13">
-        <v>1.01013000189959</v>
+        <v>1.440377316776917</v>
       </c>
       <c r="J13">
-        <v>0.2466804930306807</v>
+        <v>0.2717513204396624</v>
       </c>
       <c r="K13">
-        <v>2.230487754854863</v>
+        <v>1.057433945739518</v>
       </c>
       <c r="L13">
         <v>0</v>
       </c>
       <c r="M13">
-        <v>0.7557342936111908</v>
+        <v>0.4684333010800401</v>
       </c>
       <c r="N13">
-        <v>1.410862712438856</v>
+        <v>2.799047549835564</v>
       </c>
       <c r="O13">
         <v>0</v>
@@ -985,43 +985,43 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>1.738233059124781</v>
+        <v>0.7985462756091977</v>
       </c>
       <c r="C14">
-        <v>0.4886132197153472</v>
+        <v>0.2609485691020268</v>
       </c>
       <c r="D14">
-        <v>0.1202062348625077</v>
+        <v>0.1033257878429339</v>
       </c>
       <c r="E14">
         <v>0</v>
       </c>
       <c r="F14">
-        <v>2.275263226838987</v>
+        <v>2.874206286609464</v>
       </c>
       <c r="G14">
-        <v>0.0008068296007651687</v>
+        <v>0.002537347936380046</v>
       </c>
       <c r="H14">
         <v>0</v>
       </c>
       <c r="I14">
-        <v>1.002182026709086</v>
+        <v>1.439514587839568</v>
       </c>
       <c r="J14">
-        <v>0.2432418247628334</v>
+        <v>0.27115847143601</v>
       </c>
       <c r="K14">
-        <v>2.189389842453068</v>
+        <v>1.047553715444622</v>
       </c>
       <c r="L14">
         <v>0</v>
       </c>
       <c r="M14">
-        <v>0.7423252807321603</v>
+        <v>0.4654132921778</v>
       </c>
       <c r="N14">
-        <v>1.415701663020215</v>
+        <v>2.801485954863139</v>
       </c>
       <c r="O14">
         <v>0</v>
@@ -1032,43 +1032,43 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>1.718277775576183</v>
+        <v>0.7936515655153755</v>
       </c>
       <c r="C15">
-        <v>0.4830624284280987</v>
+        <v>0.259681871737456</v>
       </c>
       <c r="D15">
-        <v>0.1189016028546206</v>
+        <v>0.1030478133705088</v>
       </c>
       <c r="E15">
         <v>0</v>
       </c>
       <c r="F15">
-        <v>2.259992655013065</v>
+        <v>2.871901493423138</v>
       </c>
       <c r="G15">
-        <v>0.0008075561743393611</v>
+        <v>0.002537757809196356</v>
       </c>
       <c r="H15">
         <v>0</v>
       </c>
       <c r="I15">
-        <v>0.9973584954359964</v>
+        <v>1.438997637154372</v>
       </c>
       <c r="J15">
-        <v>0.2411451426329876</v>
+        <v>0.2707977432109203</v>
       </c>
       <c r="K15">
-        <v>2.164283591345963</v>
+        <v>1.041511495475675</v>
       </c>
       <c r="L15">
         <v>0</v>
       </c>
       <c r="M15">
-        <v>0.7341355816296371</v>
+        <v>0.4635679304151523</v>
       </c>
       <c r="N15">
-        <v>1.418715244337989</v>
+        <v>2.802994423143403</v>
       </c>
       <c r="O15">
         <v>0</v>
@@ -1079,43 +1079,43 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>1.604628997752144</v>
+        <v>0.7657102785103973</v>
       </c>
       <c r="C16">
-        <v>0.4515311777713293</v>
+        <v>0.2524636870749646</v>
       </c>
       <c r="D16">
-        <v>0.1114613764689807</v>
+        <v>0.1014679331963322</v>
       </c>
       <c r="E16">
         <v>0</v>
       </c>
       <c r="F16">
-        <v>2.173947755479659</v>
+        <v>2.85907027504075</v>
       </c>
       <c r="G16">
-        <v>0.0008117433264209129</v>
+        <v>0.002540143025869134</v>
       </c>
       <c r="H16">
         <v>0</v>
       </c>
       <c r="I16">
-        <v>0.9703798968967376</v>
+        <v>1.436211322264143</v>
       </c>
       <c r="J16">
-        <v>0.2292712032006108</v>
+        <v>0.2687674712115324</v>
       </c>
       <c r="K16">
-        <v>2.021391808233147</v>
+        <v>1.00703474455716</v>
       </c>
       <c r="L16">
         <v>0</v>
       </c>
       <c r="M16">
-        <v>0.6875502006092091</v>
+        <v>0.4530616046245228</v>
       </c>
       <c r="N16">
-        <v>1.436724492459561</v>
+        <v>2.811866703144389</v>
       </c>
       <c r="O16">
         <v>0</v>
@@ -1126,43 +1126,43 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>1.535500840743083</v>
+        <v>0.7486659304512671</v>
       </c>
       <c r="C17">
-        <v>0.4324209566123898</v>
+        <v>0.2480718627530223</v>
       </c>
       <c r="D17">
-        <v>0.1069274299565421</v>
+        <v>0.100510432584926</v>
       </c>
       <c r="E17">
         <v>0</v>
       </c>
       <c r="F17">
-        <v>2.122409352320076</v>
+        <v>2.851534668170501</v>
       </c>
       <c r="G17">
-        <v>0.0008143339139805583</v>
+        <v>0.002541638833834255</v>
       </c>
       <c r="H17">
         <v>0</v>
       </c>
       <c r="I17">
-        <v>0.9543958391688818</v>
+        <v>1.434659080503174</v>
       </c>
       <c r="J17">
-        <v>0.2221068456615711</v>
+        <v>0.2675548988092231</v>
       </c>
       <c r="K17">
-        <v>1.934554839629556</v>
+        <v>0.9860171213959461</v>
       </c>
       <c r="L17">
         <v>0</v>
       </c>
       <c r="M17">
-        <v>0.659262974831428</v>
+        <v>0.4466776315367653</v>
       </c>
       <c r="N17">
-        <v>1.448411208798831</v>
+        <v>2.817512739205853</v>
       </c>
       <c r="O17">
         <v>0</v>
@@ -1173,43 +1173,43 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>1.495942640728344</v>
+        <v>0.7388980480288296</v>
       </c>
       <c r="C18">
-        <v>0.4215092390652728</v>
+        <v>0.2455591173385017</v>
       </c>
       <c r="D18">
-        <v>0.1043300971023484</v>
+        <v>0.0999640184929973</v>
       </c>
       <c r="E18">
         <v>0</v>
       </c>
       <c r="F18">
-        <v>2.093201458809645</v>
+        <v>2.847323786767873</v>
       </c>
       <c r="G18">
-        <v>0.000815832376722839</v>
+        <v>0.002542511176530262</v>
       </c>
       <c r="H18">
         <v>0</v>
       </c>
       <c r="I18">
-        <v>0.9454007310180046</v>
+        <v>1.433823962786001</v>
       </c>
       <c r="J18">
-        <v>0.218027808122045</v>
+        <v>0.2668695596374704</v>
       </c>
       <c r="K18">
-        <v>1.884890227688373</v>
+        <v>0.9739771239302115</v>
       </c>
       <c r="L18">
         <v>0</v>
       </c>
       <c r="M18">
-        <v>0.6430931985233812</v>
+        <v>0.4430282804904451</v>
       </c>
       <c r="N18">
-        <v>1.45535962840431</v>
+        <v>2.820834801641453</v>
       </c>
       <c r="O18">
         <v>0</v>
@@ -1220,43 +1220,43 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>1.482582320643161</v>
+        <v>0.7355969238433602</v>
       </c>
       <c r="C19">
-        <v>0.4178279319845615</v>
+        <v>0.2447106296805543</v>
       </c>
       <c r="D19">
-        <v>0.1034524197805951</v>
+        <v>0.09977975444664366</v>
       </c>
       <c r="E19">
         <v>0</v>
       </c>
       <c r="F19">
-        <v>2.083384902452664</v>
+        <v>2.845919243878527</v>
       </c>
       <c r="G19">
-        <v>0.0008163412119314795</v>
+        <v>0.002542808599459392</v>
       </c>
       <c r="H19">
         <v>0</v>
       </c>
       <c r="I19">
-        <v>0.9423883488768467</v>
+        <v>1.433551111633278</v>
       </c>
       <c r="J19">
-        <v>0.2166536638979437</v>
+        <v>0.2666395935818002</v>
       </c>
       <c r="K19">
-        <v>1.868121145423061</v>
+        <v>0.9699089662667859</v>
       </c>
       <c r="L19">
         <v>0</v>
       </c>
       <c r="M19">
-        <v>0.637634991472801</v>
+        <v>0.4417965451636263</v>
       </c>
       <c r="N19">
-        <v>1.457750403390818</v>
+        <v>2.821972404309307</v>
       </c>
       <c r="O19">
         <v>0</v>
@@ -1267,43 +1267,43 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>1.542838365614671</v>
+        <v>0.7504766491019836</v>
       </c>
       <c r="C20">
-        <v>0.4344468695441037</v>
+        <v>0.2485380012857092</v>
       </c>
       <c r="D20">
-        <v>0.1074089770543054</v>
+        <v>0.1006119138858139</v>
       </c>
       <c r="E20">
         <v>0</v>
       </c>
       <c r="F20">
-        <v>2.127850116643231</v>
+        <v>2.852324073722258</v>
       </c>
       <c r="G20">
-        <v>0.000814057277854677</v>
+        <v>0.002541478362048228</v>
       </c>
       <c r="H20">
         <v>0</v>
       </c>
       <c r="I20">
-        <v>0.9560766130941332</v>
+        <v>1.434818347777593</v>
       </c>
       <c r="J20">
-        <v>0.2228651349278721</v>
+        <v>0.2676827268075073</v>
       </c>
       <c r="K20">
-        <v>1.943769174994145</v>
+        <v>0.9882494343504789</v>
       </c>
       <c r="L20">
         <v>0</v>
       </c>
       <c r="M20">
-        <v>0.6622636694345161</v>
+        <v>0.4473548835887726</v>
       </c>
       <c r="N20">
-        <v>1.447143513686328</v>
+        <v>2.816903985716735</v>
       </c>
       <c r="O20">
         <v>0</v>
@@ -1314,43 +1314,43 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>1.747815231147882</v>
+        <v>0.8008953371580958</v>
       </c>
       <c r="C21">
-        <v>0.4912801116749961</v>
+        <v>0.2615567065240612</v>
       </c>
       <c r="D21">
-        <v>0.1208325060935351</v>
+        <v>0.1034593150391032</v>
       </c>
       <c r="E21">
         <v>0</v>
       </c>
       <c r="F21">
-        <v>2.282612652034601</v>
+        <v>2.875318161602124</v>
       </c>
       <c r="G21">
-        <v>0.000806481589722835</v>
+        <v>0.002537152034164125</v>
       </c>
       <c r="H21">
         <v>0</v>
       </c>
       <c r="I21">
-        <v>1.004507137699875</v>
+        <v>1.439765596360886</v>
       </c>
       <c r="J21">
-        <v>0.2442498297079396</v>
+        <v>0.2713321035297156</v>
       </c>
       <c r="K21">
-        <v>2.201447122876374</v>
+        <v>1.050453755773731</v>
       </c>
       <c r="L21">
         <v>0</v>
       </c>
       <c r="M21">
-        <v>0.7462588506844412</v>
+        <v>0.4662994082239038</v>
       </c>
       <c r="N21">
-        <v>1.414269962798883</v>
+        <v>2.800766635986008</v>
       </c>
       <c r="O21">
         <v>0</v>
@@ -1361,43 +1361,43 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>1.883911274482045</v>
+        <v>0.8341630510235518</v>
       </c>
       <c r="C22">
-        <v>0.5292619638852614</v>
+        <v>0.2701842644858345</v>
       </c>
       <c r="D22">
-        <v>0.1297140816263465</v>
+        <v>0.1053583943916578</v>
       </c>
       <c r="E22">
         <v>0</v>
       </c>
       <c r="F22">
-        <v>2.388138709491599</v>
+        <v>2.891446127582924</v>
       </c>
       <c r="G22">
-        <v>0.0008015972405983618</v>
+        <v>0.002534430705496373</v>
       </c>
       <c r="H22">
         <v>0</v>
       </c>
       <c r="I22">
-        <v>1.038139404096206</v>
+        <v>1.443513340960038</v>
       </c>
       <c r="J22">
-        <v>0.2586492375706513</v>
+        <v>0.2738249919983389</v>
       </c>
       <c r="K22">
-        <v>2.372815171906012</v>
+        <v>1.091542307780173</v>
       </c>
       <c r="L22">
         <v>0</v>
       </c>
       <c r="M22">
-        <v>0.80219705231125</v>
+        <v>0.4788813240577028</v>
       </c>
       <c r="N22">
-        <v>1.394982079133626</v>
+        <v>2.790885554299351</v>
       </c>
       <c r="O22">
         <v>0</v>
@@ -1408,43 +1408,43 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>1.811062348933717</v>
+        <v>0.8163785439610649</v>
       </c>
       <c r="C23">
-        <v>0.5089071837687982</v>
+        <v>0.2655686537167981</v>
       </c>
       <c r="D23">
-        <v>0.1249631077625679</v>
+        <v>0.1043413441360599</v>
       </c>
       <c r="E23">
         <v>0</v>
       </c>
       <c r="F23">
-        <v>2.331391046441126</v>
+        <v>2.882737622482381</v>
       </c>
       <c r="G23">
-        <v>0.0008041984174279772</v>
+        <v>0.002535873444549963</v>
       </c>
       <c r="H23">
         <v>0</v>
       </c>
       <c r="I23">
-        <v>1.019997150739158</v>
+        <v>1.441465994086109</v>
       </c>
       <c r="J23">
-        <v>0.2509226162524669</v>
+        <v>0.2724846230196221</v>
       </c>
       <c r="K23">
-        <v>2.281058740181265</v>
+        <v>1.069572821919934</v>
       </c>
       <c r="L23">
         <v>0</v>
       </c>
       <c r="M23">
-        <v>0.7722387332930509</v>
+        <v>0.4721477734770332</v>
       </c>
       <c r="N23">
-        <v>1.405066141764593</v>
+        <v>2.796098311376753</v>
       </c>
       <c r="O23">
         <v>0</v>
@@ -1455,43 +1455,43 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>1.539520499471678</v>
+        <v>0.7496579261944021</v>
       </c>
       <c r="C24">
-        <v>0.4335307220359539</v>
+        <v>0.24832722214407</v>
       </c>
       <c r="D24">
-        <v>0.1071912408284419</v>
+        <v>0.1005660215229938</v>
       </c>
       <c r="E24">
         <v>0</v>
       </c>
       <c r="F24">
-        <v>2.125389037331615</v>
+        <v>2.851966805191537</v>
       </c>
       <c r="G24">
-        <v>0.0008141823166833011</v>
+        <v>0.002541550872873509</v>
       </c>
       <c r="H24">
         <v>0</v>
       </c>
       <c r="I24">
-        <v>0.9553161321551542</v>
+        <v>1.434746164594529</v>
       </c>
       <c r="J24">
-        <v>0.2225221887914159</v>
+        <v>0.2676248990622554</v>
       </c>
       <c r="K24">
-        <v>1.939602571722162</v>
+        <v>0.9872400707462248</v>
       </c>
       <c r="L24">
         <v>0</v>
       </c>
       <c r="M24">
-        <v>0.6609067675603342</v>
+        <v>0.4470486328961201</v>
       </c>
       <c r="N24">
-        <v>1.44771592550893</v>
+        <v>2.817178966168939</v>
       </c>
       <c r="O24">
         <v>0</v>
@@ -1502,43 +1502,43 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>1.254204005647523</v>
+        <v>0.6790491656012421</v>
       </c>
       <c r="C25">
-        <v>0.3552237220195593</v>
+        <v>0.230238267157489</v>
       </c>
       <c r="D25">
-        <v>0.08841447035094063</v>
+        <v>0.09665884778713973</v>
       </c>
       <c r="E25">
         <v>0</v>
       </c>
       <c r="F25">
-        <v>1.919601150177314</v>
+        <v>2.823492506263449</v>
       </c>
       <c r="G25">
-        <v>0.0008252776582440138</v>
+        <v>0.002548133814659872</v>
       </c>
       <c r="H25">
         <v>0</v>
       </c>
       <c r="I25">
-        <v>0.8930359074360155</v>
+        <v>1.429702909587959</v>
       </c>
       <c r="J25">
-        <v>0.1934578618224876</v>
+        <v>0.2628454652871781</v>
       </c>
       <c r="K25">
-        <v>1.581843510865269</v>
+        <v>0.9002956152561978</v>
       </c>
       <c r="L25">
         <v>0</v>
       </c>
       <c r="M25">
-        <v>0.544580489519717</v>
+        <v>0.4208369372125773</v>
       </c>
       <c r="N25">
-        <v>1.502297456971675</v>
+        <v>2.84276978667279</v>
       </c>
       <c r="O25">
         <v>0</v>

--- a/Code/Results/Cases/Case_3_205/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_3_205/res_line/pl_mw.xlsx
@@ -421,43 +421,43 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>0.6282199854184967</v>
+        <v>1.049055524434436</v>
       </c>
       <c r="C2">
-        <v>0.2173507237143042</v>
+        <v>0.2995446241055504</v>
       </c>
       <c r="D2">
-        <v>0.09392477947358202</v>
+        <v>0.07485177558307043</v>
       </c>
       <c r="E2">
         <v>0</v>
       </c>
       <c r="F2">
-        <v>2.806569869732797</v>
+        <v>1.779813326223731</v>
       </c>
       <c r="G2">
-        <v>0.002553379781415717</v>
+        <v>0.0008337682482295017</v>
       </c>
       <c r="H2">
         <v>0</v>
       </c>
       <c r="I2">
-        <v>1.427880147032816</v>
+        <v>0.8526104239190033</v>
       </c>
       <c r="J2">
-        <v>0.2597227798853083</v>
+        <v>0.1731593518285806</v>
       </c>
       <c r="K2">
-        <v>0.8378658212816106</v>
+        <v>1.325323426412893</v>
       </c>
       <c r="L2">
         <v>0</v>
       </c>
       <c r="M2">
-        <v>0.4022742031768729</v>
+        <v>0.4614436853882466</v>
       </c>
       <c r="N2">
-        <v>2.864061514756749</v>
+        <v>1.54902993246013</v>
       </c>
       <c r="O2">
         <v>0</v>
@@ -468,43 +468,43 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>0.5944919923339569</v>
+        <v>0.9123937241139117</v>
       </c>
       <c r="C3">
-        <v>0.2088828853370615</v>
+        <v>0.262780166375876</v>
       </c>
       <c r="D3">
-        <v>0.09216139151788383</v>
+        <v>0.06579046413382628</v>
       </c>
       <c r="E3">
         <v>0</v>
       </c>
       <c r="F3">
-        <v>2.797617076168777</v>
+        <v>1.691341682886346</v>
       </c>
       <c r="G3">
-        <v>0.002557186062454499</v>
+        <v>0.000839740954313828</v>
       </c>
       <c r="H3">
         <v>0</v>
       </c>
       <c r="I3">
-        <v>1.427821499067974</v>
+        <v>0.8281556655015478</v>
       </c>
       <c r="J3">
-        <v>0.2578531681327547</v>
+        <v>0.1599797857253407</v>
       </c>
       <c r="K3">
-        <v>0.7965394483557304</v>
+        <v>1.154815595783163</v>
       </c>
       <c r="L3">
         <v>0</v>
       </c>
       <c r="M3">
-        <v>0.3901519390343822</v>
+        <v>0.4063494972402353</v>
       </c>
       <c r="N3">
-        <v>2.880017338199572</v>
+        <v>1.584417308214569</v>
       </c>
       <c r="O3">
         <v>0</v>
@@ -515,43 +515,43 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>0.5741370176503438</v>
+        <v>0.8294415136398072</v>
       </c>
       <c r="C4">
-        <v>0.2038141067736348</v>
+        <v>0.2406066471508694</v>
       </c>
       <c r="D4">
-        <v>0.0911230147626938</v>
+        <v>0.06028104933316314</v>
       </c>
       <c r="E4">
         <v>0</v>
       </c>
       <c r="F4">
-        <v>2.793359471321679</v>
+        <v>1.639794587619178</v>
       </c>
       <c r="G4">
-        <v>0.002559647669602131</v>
+        <v>0.0008435215193472797</v>
       </c>
       <c r="H4">
         <v>0</v>
       </c>
       <c r="I4">
-        <v>1.428365173017546</v>
+        <v>0.8144583155763598</v>
       </c>
       <c r="J4">
-        <v>0.2568267508066668</v>
+        <v>0.152139180538498</v>
       </c>
       <c r="K4">
-        <v>0.7716481230440593</v>
+        <v>1.051483061133723</v>
       </c>
       <c r="L4">
         <v>0</v>
       </c>
       <c r="M4">
-        <v>0.3829343429189862</v>
+        <v>0.3730420144930733</v>
       </c>
       <c r="N4">
-        <v>2.890566548421909</v>
+        <v>1.607869138632715</v>
       </c>
       <c r="O4">
         <v>0</v>
@@ -562,43 +562,43 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>0.5659313498464655</v>
+        <v>0.7958503542944584</v>
       </c>
       <c r="C5">
-        <v>0.2017812931034939</v>
+        <v>0.2316606690925767</v>
       </c>
       <c r="D5">
-        <v>0.09071106263086648</v>
+        <v>0.05804821846387398</v>
       </c>
       <c r="E5">
         <v>0</v>
       </c>
       <c r="F5">
-        <v>2.791936063630473</v>
+        <v>1.619443272259588</v>
       </c>
       <c r="G5">
-        <v>0.002560682209019101</v>
+        <v>0.0008450913745588822</v>
       </c>
       <c r="H5">
         <v>0</v>
       </c>
       <c r="I5">
-        <v>1.428732437600125</v>
+        <v>0.809189621685988</v>
       </c>
       <c r="J5">
-        <v>0.2564390376810479</v>
+        <v>0.1490028632106046</v>
       </c>
       <c r="K5">
-        <v>0.7616262344729705</v>
+        <v>1.00967719971743</v>
       </c>
       <c r="L5">
         <v>0</v>
       </c>
       <c r="M5">
-        <v>0.3800498560619801</v>
+        <v>0.3595868824026383</v>
       </c>
       <c r="N5">
-        <v>2.895054509394306</v>
+        <v>1.617844225872396</v>
       </c>
       <c r="O5">
         <v>0</v>
@@ -609,43 +609,43 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>0.5645741923147227</v>
+        <v>0.7902846051216272</v>
       </c>
       <c r="C6">
-        <v>0.2014457224513393</v>
+        <v>0.2301803280005998</v>
       </c>
       <c r="D6">
-        <v>0.09064333569096306</v>
+        <v>0.05767816378717328</v>
       </c>
       <c r="E6">
         <v>0</v>
       </c>
       <c r="F6">
-        <v>2.791718525948099</v>
+        <v>1.616102273151014</v>
       </c>
       <c r="G6">
-        <v>0.002560855893673195</v>
+        <v>0.000845353835408799</v>
       </c>
       <c r="H6">
         <v>0</v>
       </c>
       <c r="I6">
-        <v>1.428802220813481</v>
+        <v>0.8083331549520665</v>
       </c>
       <c r="J6">
-        <v>0.2563765039973518</v>
+        <v>0.1484855048644391</v>
       </c>
       <c r="K6">
-        <v>0.7599694481471602</v>
+        <v>1.002752575527438</v>
       </c>
       <c r="L6">
         <v>0</v>
       </c>
       <c r="M6">
-        <v>0.3795743173129154</v>
+        <v>0.3573594276813381</v>
       </c>
       <c r="N6">
-        <v>2.895811148746844</v>
+        <v>1.619525418945223</v>
       </c>
       <c r="O6">
         <v>0</v>
@@ -656,43 +656,43 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>0.574025992052384</v>
+        <v>0.8289876673424033</v>
       </c>
       <c r="C7">
-        <v>0.2037865589960433</v>
+        <v>0.2404856481094555</v>
       </c>
       <c r="D7">
-        <v>0.09111741364767312</v>
+        <v>0.06025088850807947</v>
       </c>
       <c r="E7">
         <v>0</v>
       </c>
       <c r="F7">
-        <v>2.793339013185829</v>
+        <v>1.639517527553707</v>
       </c>
       <c r="G7">
-        <v>0.002559661494369367</v>
+        <v>0.0008435425715206049</v>
       </c>
       <c r="H7">
         <v>0</v>
       </c>
       <c r="I7">
-        <v>1.428369536165576</v>
+        <v>0.8143860158221017</v>
       </c>
       <c r="J7">
-        <v>0.2568213982333205</v>
+        <v>0.152096650756782</v>
       </c>
       <c r="K7">
-        <v>0.7715124722624864</v>
+        <v>1.050918075602084</v>
       </c>
       <c r="L7">
         <v>0</v>
       </c>
       <c r="M7">
-        <v>0.3828952119291174</v>
+        <v>0.372860092889141</v>
       </c>
       <c r="N7">
-        <v>2.890626309221851</v>
+        <v>1.608001991911159</v>
       </c>
       <c r="O7">
         <v>0</v>
@@ -703,43 +703,43 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>0.6165171142842212</v>
+        <v>1.001717775175365</v>
       </c>
       <c r="C8">
-        <v>0.2144038848487924</v>
+        <v>0.2867785582758984</v>
       </c>
       <c r="D8">
-        <v>0.09330758298431618</v>
+        <v>0.07171533308439137</v>
       </c>
       <c r="E8">
         <v>0</v>
       </c>
       <c r="F8">
-        <v>2.803225647797134</v>
+        <v>1.748705475105396</v>
       </c>
       <c r="G8">
-        <v>0.002554666399363165</v>
+        <v>0.0008358045899877248</v>
       </c>
       <c r="H8">
         <v>0</v>
       </c>
       <c r="I8">
-        <v>1.427739576110511</v>
+        <v>0.8438934699931764</v>
       </c>
       <c r="J8">
-        <v>0.2590529125258598</v>
+        <v>0.1685599949443954</v>
       </c>
       <c r="K8">
-        <v>0.8235161855120339</v>
+        <v>1.266225757514633</v>
       </c>
       <c r="L8">
         <v>0</v>
       </c>
       <c r="M8">
-        <v>0.398047653458633</v>
+        <v>0.442331085336825</v>
       </c>
       <c r="N8">
-        <v>2.869406893363085</v>
+        <v>1.560864257150953</v>
       </c>
       <c r="O8">
         <v>0</v>
@@ -750,43 +750,43 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>0.7026531003316165</v>
+        <v>1.349447517957913</v>
       </c>
       <c r="C9">
-        <v>0.236264172866953</v>
+        <v>0.3812566678204234</v>
       </c>
       <c r="D9">
-        <v>0.09795286507952028</v>
+        <v>0.09469391858695531</v>
       </c>
       <c r="E9">
         <v>0</v>
       </c>
       <c r="F9">
-        <v>2.832455241537758</v>
+        <v>1.986948606541731</v>
       </c>
       <c r="G9">
-        <v>0.002545854648941435</v>
+        <v>0.0008214928590292647</v>
       </c>
       <c r="H9">
         <v>0</v>
       </c>
       <c r="I9">
-        <v>1.431107684036654</v>
+        <v>0.9131080360401853</v>
       </c>
       <c r="J9">
-        <v>0.264393763386515</v>
+        <v>0.20306149075288</v>
       </c>
       <c r="K9">
-        <v>0.9293354592611252</v>
+        <v>1.701146967785121</v>
       </c>
       <c r="L9">
         <v>0</v>
       </c>
       <c r="M9">
-        <v>0.429551676701351</v>
+        <v>0.5833293032443194</v>
       </c>
       <c r="N9">
-        <v>2.833768770551004</v>
+        <v>1.482842819737968</v>
       </c>
       <c r="O9">
         <v>0</v>
@@ -797,43 +797,43 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>0.7676599757377289</v>
+        <v>1.612545506265661</v>
       </c>
       <c r="C10">
-        <v>0.252966630831736</v>
+        <v>0.4537230315659997</v>
       </c>
       <c r="D10">
-        <v>0.1015777743868398</v>
+        <v>0.1119802001311854</v>
       </c>
       <c r="E10">
         <v>0</v>
       </c>
       <c r="F10">
-        <v>2.859946865173498</v>
+        <v>2.17988929964838</v>
       </c>
       <c r="G10">
-        <v>0.002539973966593725</v>
+        <v>0.0008114488372454268</v>
       </c>
       <c r="H10">
         <v>0</v>
       </c>
       <c r="I10">
-        <v>1.436396263493876</v>
+        <v>0.9722313758539585</v>
       </c>
       <c r="J10">
-        <v>0.2689074739910922</v>
+        <v>0.2300945265699426</v>
       </c>
       <c r="K10">
-        <v>1.009439611950853</v>
+        <v>2.03134015022286</v>
       </c>
       <c r="L10">
         <v>0</v>
       </c>
       <c r="M10">
-        <v>0.4537931142658991</v>
+        <v>0.6907920443497062</v>
       </c>
       <c r="N10">
-        <v>2.811232565332418</v>
+        <v>1.435422234366357</v>
       </c>
       <c r="O10">
         <v>0</v>
@@ -844,43 +844,43 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>0.797609838250537</v>
+        <v>1.734414150110268</v>
       </c>
       <c r="C11">
-        <v>0.2607061799464816</v>
+        <v>0.4875506192218211</v>
       </c>
       <c r="D11">
-        <v>0.1032725800959611</v>
+        <v>0.1199566044044929</v>
       </c>
       <c r="E11">
         <v>0</v>
       </c>
       <c r="F11">
-        <v>2.873764081774809</v>
+        <v>2.272337187101471</v>
       </c>
       <c r="G11">
-        <v>0.002537426175963868</v>
+        <v>0.0008069684559061471</v>
       </c>
       <c r="H11">
         <v>0</v>
       </c>
       <c r="I11">
-        <v>1.439415049255366</v>
+        <v>1.001256981019246</v>
       </c>
       <c r="J11">
-        <v>0.2710893462819541</v>
+        <v>0.2428403104250094</v>
       </c>
       <c r="K11">
-        <v>1.046397682324169</v>
+        <v>2.184584803905921</v>
       </c>
       <c r="L11">
         <v>0</v>
       </c>
       <c r="M11">
-        <v>0.4650601367326246</v>
+        <v>0.7407577676543724</v>
       </c>
       <c r="N11">
-        <v>2.801773537998471</v>
+        <v>1.416275028196594</v>
       </c>
       <c r="O11">
         <v>0</v>
@@ -891,43 +891,43 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>0.8090054539072185</v>
+        <v>1.780924557125729</v>
       </c>
       <c r="C12">
-        <v>0.26365740315984</v>
+        <v>0.500502495749231</v>
       </c>
       <c r="D12">
-        <v>0.1039209126181362</v>
+        <v>0.1229955136792427</v>
       </c>
       <c r="E12">
         <v>0</v>
       </c>
       <c r="F12">
-        <v>2.879185067255563</v>
+        <v>2.30808998235635</v>
       </c>
       <c r="G12">
-        <v>0.002536479606212155</v>
+        <v>0.0008052834011577068</v>
       </c>
       <c r="H12">
         <v>0</v>
       </c>
       <c r="I12">
-        <v>1.440646446833604</v>
+        <v>1.012585250139956</v>
       </c>
       <c r="J12">
-        <v>0.2719340694054182</v>
+        <v>0.2477387951231123</v>
       </c>
       <c r="K12">
-        <v>1.060467433238756</v>
+        <v>2.243117176812092</v>
       </c>
       <c r="L12">
         <v>0</v>
       </c>
       <c r="M12">
-        <v>0.4693611263014006</v>
+        <v>0.7598555808935998</v>
       </c>
       <c r="N12">
-        <v>2.798305789047902</v>
+        <v>1.409398914378215</v>
       </c>
       <c r="O12">
         <v>0</v>
@@ -938,43 +938,43 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>0.8065487926808714</v>
+        <v>1.770890833334789</v>
       </c>
       <c r="C13">
-        <v>0.2630208948868358</v>
+        <v>0.4977064493931493</v>
       </c>
       <c r="D13">
-        <v>0.1037809921219264</v>
+        <v>0.1223401738749743</v>
       </c>
       <c r="E13">
         <v>0</v>
       </c>
       <c r="F13">
-        <v>2.878009165620711</v>
+        <v>2.30035563130869</v>
       </c>
       <c r="G13">
-        <v>0.002536682657912615</v>
+        <v>0.0008056458134398722</v>
       </c>
       <c r="H13">
         <v>0</v>
       </c>
       <c r="I13">
-        <v>1.440377316776917</v>
+        <v>1.01013000189959</v>
       </c>
       <c r="J13">
-        <v>0.2717513204396624</v>
+        <v>0.2466804930307092</v>
       </c>
       <c r="K13">
-        <v>1.057433945739518</v>
+        <v>2.230487754854806</v>
       </c>
       <c r="L13">
         <v>0</v>
       </c>
       <c r="M13">
-        <v>0.4684333010800401</v>
+        <v>0.7557342936111979</v>
       </c>
       <c r="N13">
-        <v>2.799047549835564</v>
+        <v>1.410862712438842</v>
       </c>
       <c r="O13">
         <v>0</v>
@@ -985,43 +985,43 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>0.7985462756091977</v>
+        <v>1.738233059125008</v>
       </c>
       <c r="C14">
-        <v>0.2609485691020268</v>
+        <v>0.4886132197152904</v>
       </c>
       <c r="D14">
-        <v>0.1033257878429339</v>
+        <v>0.120206234862593</v>
       </c>
       <c r="E14">
         <v>0</v>
       </c>
       <c r="F14">
-        <v>2.874206286609464</v>
+        <v>2.275263226838959</v>
       </c>
       <c r="G14">
-        <v>0.002537347936380046</v>
+        <v>0.0008068296007628951</v>
       </c>
       <c r="H14">
         <v>0</v>
       </c>
       <c r="I14">
-        <v>1.439514587839568</v>
+        <v>1.002182026709079</v>
       </c>
       <c r="J14">
-        <v>0.27115847143601</v>
+        <v>0.2432418247629187</v>
       </c>
       <c r="K14">
-        <v>1.047553715444622</v>
+        <v>2.189389842453039</v>
       </c>
       <c r="L14">
         <v>0</v>
       </c>
       <c r="M14">
-        <v>0.4654132921778</v>
+        <v>0.7423252807321248</v>
       </c>
       <c r="N14">
-        <v>2.801485954863139</v>
+        <v>1.415701663020144</v>
       </c>
       <c r="O14">
         <v>0</v>
@@ -1032,43 +1032,43 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>0.7936515655153755</v>
+        <v>1.718277775576183</v>
       </c>
       <c r="C15">
-        <v>0.259681871737456</v>
+        <v>0.4830624284281271</v>
       </c>
       <c r="D15">
-        <v>0.1030478133705088</v>
+        <v>0.1189016028546206</v>
       </c>
       <c r="E15">
         <v>0</v>
       </c>
       <c r="F15">
-        <v>2.871901493423138</v>
+        <v>2.25999265501305</v>
       </c>
       <c r="G15">
-        <v>0.002537757809196356</v>
+        <v>0.0008075561742326585</v>
       </c>
       <c r="H15">
         <v>0</v>
       </c>
       <c r="I15">
-        <v>1.438997637154372</v>
+        <v>0.9973584954359964</v>
       </c>
       <c r="J15">
-        <v>0.2707977432109203</v>
+        <v>0.2411451426329734</v>
       </c>
       <c r="K15">
-        <v>1.041511495475675</v>
+        <v>2.164283591346077</v>
       </c>
       <c r="L15">
         <v>0</v>
       </c>
       <c r="M15">
-        <v>0.4635679304151523</v>
+        <v>0.7341355816296371</v>
       </c>
       <c r="N15">
-        <v>2.802994423143403</v>
+        <v>1.418715244338046</v>
       </c>
       <c r="O15">
         <v>0</v>
@@ -1079,43 +1079,43 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>0.7657102785103973</v>
+        <v>1.604628997752116</v>
       </c>
       <c r="C16">
-        <v>0.2524636870749646</v>
+        <v>0.4515311777713293</v>
       </c>
       <c r="D16">
-        <v>0.1014679331963322</v>
+        <v>0.1114613764689665</v>
       </c>
       <c r="E16">
         <v>0</v>
       </c>
       <c r="F16">
-        <v>2.85907027504075</v>
+        <v>2.173947755479645</v>
       </c>
       <c r="G16">
-        <v>0.002540143025869134</v>
+        <v>0.0008117433263906885</v>
       </c>
       <c r="H16">
         <v>0</v>
       </c>
       <c r="I16">
-        <v>1.436211322264143</v>
+        <v>0.9703798968967163</v>
       </c>
       <c r="J16">
-        <v>0.2687674712115324</v>
+        <v>0.2292712032006676</v>
       </c>
       <c r="K16">
-        <v>1.00703474455716</v>
+        <v>2.021391808233261</v>
       </c>
       <c r="L16">
         <v>0</v>
       </c>
       <c r="M16">
-        <v>0.4530616046245228</v>
+        <v>0.6875502006092162</v>
       </c>
       <c r="N16">
-        <v>2.811866703144389</v>
+        <v>1.436724492459547</v>
       </c>
       <c r="O16">
         <v>0</v>
@@ -1126,43 +1126,43 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>0.7486659304512671</v>
+        <v>1.535500840743197</v>
       </c>
       <c r="C17">
-        <v>0.2480718627530223</v>
+        <v>0.4324209566125035</v>
       </c>
       <c r="D17">
-        <v>0.100510432584926</v>
+        <v>0.1069274299567411</v>
       </c>
       <c r="E17">
         <v>0</v>
       </c>
       <c r="F17">
-        <v>2.851534668170501</v>
+        <v>2.122409352320062</v>
       </c>
       <c r="G17">
-        <v>0.002541638833834255</v>
+        <v>0.0008143339139800946</v>
       </c>
       <c r="H17">
         <v>0</v>
       </c>
       <c r="I17">
-        <v>1.434659080503174</v>
+        <v>0.9543958391688818</v>
       </c>
       <c r="J17">
-        <v>0.2675548988092231</v>
+        <v>0.2221068456615711</v>
       </c>
       <c r="K17">
-        <v>0.9860171213959461</v>
+        <v>1.934554839629556</v>
       </c>
       <c r="L17">
         <v>0</v>
       </c>
       <c r="M17">
-        <v>0.4466776315367653</v>
+        <v>0.6592629748314067</v>
       </c>
       <c r="N17">
-        <v>2.817512739205853</v>
+        <v>1.448411208798845</v>
       </c>
       <c r="O17">
         <v>0</v>
@@ -1173,43 +1173,43 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>0.7388980480288296</v>
+        <v>1.495942640728202</v>
       </c>
       <c r="C18">
-        <v>0.2455591173385017</v>
+        <v>0.4215092390653297</v>
       </c>
       <c r="D18">
-        <v>0.0999640184929973</v>
+        <v>0.1043300971023484</v>
       </c>
       <c r="E18">
         <v>0</v>
       </c>
       <c r="F18">
-        <v>2.847323786767873</v>
+        <v>2.093201458809645</v>
       </c>
       <c r="G18">
-        <v>0.002542511176530262</v>
+        <v>0.0008158323767220079</v>
       </c>
       <c r="H18">
         <v>0</v>
       </c>
       <c r="I18">
-        <v>1.433823962786001</v>
+        <v>0.9454007310180117</v>
       </c>
       <c r="J18">
-        <v>0.2668695596374704</v>
+        <v>0.2180278081220592</v>
       </c>
       <c r="K18">
-        <v>0.9739771239302115</v>
+        <v>1.884890227688288</v>
       </c>
       <c r="L18">
         <v>0</v>
       </c>
       <c r="M18">
-        <v>0.4430282804904451</v>
+        <v>0.6430931985234025</v>
       </c>
       <c r="N18">
-        <v>2.820834801641453</v>
+        <v>1.455359628404366</v>
       </c>
       <c r="O18">
         <v>0</v>
@@ -1220,43 +1220,43 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>0.7355969238433602</v>
+        <v>1.482582320643218</v>
       </c>
       <c r="C19">
-        <v>0.2447106296805543</v>
+        <v>0.417827931984732</v>
       </c>
       <c r="D19">
-        <v>0.09977975444664366</v>
+        <v>0.1034524197805666</v>
       </c>
       <c r="E19">
         <v>0</v>
       </c>
       <c r="F19">
-        <v>2.845919243878527</v>
+        <v>2.083384902452693</v>
       </c>
       <c r="G19">
-        <v>0.002542808599459392</v>
+        <v>0.0008163412119282452</v>
       </c>
       <c r="H19">
         <v>0</v>
       </c>
       <c r="I19">
-        <v>1.433551111633278</v>
+        <v>0.9423883488768396</v>
       </c>
       <c r="J19">
-        <v>0.2666395935818002</v>
+        <v>0.2166536638979153</v>
       </c>
       <c r="K19">
-        <v>0.9699089662667859</v>
+        <v>1.868121145423061</v>
       </c>
       <c r="L19">
         <v>0</v>
       </c>
       <c r="M19">
-        <v>0.4417965451636263</v>
+        <v>0.637634991472801</v>
       </c>
       <c r="N19">
-        <v>2.821972404309307</v>
+        <v>1.457750403390833</v>
       </c>
       <c r="O19">
         <v>0</v>
@@ -1267,43 +1267,43 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>0.7504766491019836</v>
+        <v>1.542838365614557</v>
       </c>
       <c r="C20">
-        <v>0.2485380012857092</v>
+        <v>0.4344468695439048</v>
       </c>
       <c r="D20">
-        <v>0.1006119138858139</v>
+        <v>0.1074089770541775</v>
       </c>
       <c r="E20">
         <v>0</v>
       </c>
       <c r="F20">
-        <v>2.852324073722258</v>
+        <v>2.127850116643216</v>
       </c>
       <c r="G20">
-        <v>0.002541478362048228</v>
+        <v>0.0008140572777615503</v>
       </c>
       <c r="H20">
         <v>0</v>
       </c>
       <c r="I20">
-        <v>1.434818347777593</v>
+        <v>0.9560766130941261</v>
       </c>
       <c r="J20">
-        <v>0.2676827268075073</v>
+        <v>0.2228651349277868</v>
       </c>
       <c r="K20">
-        <v>0.9882494343504789</v>
+        <v>1.943769174994173</v>
       </c>
       <c r="L20">
         <v>0</v>
       </c>
       <c r="M20">
-        <v>0.4473548835887726</v>
+        <v>0.662263669434509</v>
       </c>
       <c r="N20">
-        <v>2.816903985716735</v>
+        <v>1.447143513686328</v>
       </c>
       <c r="O20">
         <v>0</v>
@@ -1314,43 +1314,43 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>0.8008953371580958</v>
+        <v>1.747815231147968</v>
       </c>
       <c r="C21">
-        <v>0.2615567065240612</v>
+        <v>0.4912801116748824</v>
       </c>
       <c r="D21">
-        <v>0.1034593150391032</v>
+        <v>0.1208325060938336</v>
       </c>
       <c r="E21">
         <v>0</v>
       </c>
       <c r="F21">
-        <v>2.875318161602124</v>
+        <v>2.282612652034601</v>
       </c>
       <c r="G21">
-        <v>0.002537152034164125</v>
+        <v>0.0008064815897713046</v>
       </c>
       <c r="H21">
         <v>0</v>
       </c>
       <c r="I21">
-        <v>1.439765596360886</v>
+        <v>1.004507137699889</v>
       </c>
       <c r="J21">
-        <v>0.2713321035297156</v>
+        <v>0.244249829707968</v>
       </c>
       <c r="K21">
-        <v>1.050453755773731</v>
+        <v>2.201447122876289</v>
       </c>
       <c r="L21">
         <v>0</v>
       </c>
       <c r="M21">
-        <v>0.4662994082239038</v>
+        <v>0.7462588506844412</v>
       </c>
       <c r="N21">
-        <v>2.800766635986008</v>
+        <v>1.414269962798926</v>
       </c>
       <c r="O21">
         <v>0</v>
@@ -1361,43 +1361,43 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>0.8341630510235518</v>
+        <v>1.883911274481846</v>
       </c>
       <c r="C22">
-        <v>0.2701842644858345</v>
+        <v>0.5292619638852898</v>
       </c>
       <c r="D22">
-        <v>0.1053583943916578</v>
+        <v>0.1297140816262186</v>
       </c>
       <c r="E22">
         <v>0</v>
       </c>
       <c r="F22">
-        <v>2.891446127582924</v>
+        <v>2.388138709491614</v>
       </c>
       <c r="G22">
-        <v>0.002534430705496373</v>
+        <v>0.0008015972406257516</v>
       </c>
       <c r="H22">
         <v>0</v>
       </c>
       <c r="I22">
-        <v>1.443513340960038</v>
+        <v>1.038139404096206</v>
       </c>
       <c r="J22">
-        <v>0.2738249919983389</v>
+        <v>0.2586492375706513</v>
       </c>
       <c r="K22">
-        <v>1.091542307780173</v>
+        <v>2.372815171906041</v>
       </c>
       <c r="L22">
         <v>0</v>
       </c>
       <c r="M22">
-        <v>0.4788813240577028</v>
+        <v>0.8021970523112572</v>
       </c>
       <c r="N22">
-        <v>2.790885554299351</v>
+        <v>1.394982079133626</v>
       </c>
       <c r="O22">
         <v>0</v>
@@ -1408,43 +1408,43 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>0.8163785439610649</v>
+        <v>1.811062348933802</v>
       </c>
       <c r="C23">
-        <v>0.2655686537167981</v>
+        <v>0.5089071837689687</v>
       </c>
       <c r="D23">
-        <v>0.1043413441360599</v>
+        <v>0.1249631077625821</v>
       </c>
       <c r="E23">
         <v>0</v>
       </c>
       <c r="F23">
-        <v>2.882737622482381</v>
+        <v>2.331391046441141</v>
       </c>
       <c r="G23">
-        <v>0.002535873444549963</v>
+        <v>0.0008041984174285207</v>
       </c>
       <c r="H23">
         <v>0</v>
       </c>
       <c r="I23">
-        <v>1.441465994086109</v>
+        <v>1.019997150739158</v>
       </c>
       <c r="J23">
-        <v>0.2724846230196221</v>
+        <v>0.2509226162524669</v>
       </c>
       <c r="K23">
-        <v>1.069572821919934</v>
+        <v>2.281058740181322</v>
       </c>
       <c r="L23">
         <v>0</v>
       </c>
       <c r="M23">
-        <v>0.4721477734770332</v>
+        <v>0.7722387332930438</v>
       </c>
       <c r="N23">
-        <v>2.796098311376753</v>
+        <v>1.405066141764664</v>
       </c>
       <c r="O23">
         <v>0</v>
@@ -1455,43 +1455,43 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>0.7496579261944021</v>
+        <v>1.539520499471735</v>
       </c>
       <c r="C24">
-        <v>0.24832722214407</v>
+        <v>0.4335307220360107</v>
       </c>
       <c r="D24">
-        <v>0.1005660215229938</v>
+        <v>0.1071912408285414</v>
       </c>
       <c r="E24">
         <v>0</v>
       </c>
       <c r="F24">
-        <v>2.851966805191537</v>
+        <v>2.125389037331615</v>
       </c>
       <c r="G24">
-        <v>0.002541550872873509</v>
+        <v>0.0008141823166529958</v>
       </c>
       <c r="H24">
         <v>0</v>
       </c>
       <c r="I24">
-        <v>1.434746164594529</v>
+        <v>0.9553161321551613</v>
       </c>
       <c r="J24">
-        <v>0.2676248990622554</v>
+        <v>0.2225221887914017</v>
       </c>
       <c r="K24">
-        <v>0.9872400707462248</v>
+        <v>1.939602571722247</v>
       </c>
       <c r="L24">
         <v>0</v>
       </c>
       <c r="M24">
-        <v>0.4470486328961201</v>
+        <v>0.6609067675603271</v>
       </c>
       <c r="N24">
-        <v>2.817178966168939</v>
+        <v>1.44771592550893</v>
       </c>
       <c r="O24">
         <v>0</v>
@@ -1502,43 +1502,43 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>0.6790491656012421</v>
+        <v>1.254204005647495</v>
       </c>
       <c r="C25">
-        <v>0.230238267157489</v>
+        <v>0.3552237220195877</v>
       </c>
       <c r="D25">
-        <v>0.09665884778713973</v>
+        <v>0.08841447035072747</v>
       </c>
       <c r="E25">
         <v>0</v>
       </c>
       <c r="F25">
-        <v>2.823492506263449</v>
+        <v>1.9196011501773</v>
       </c>
       <c r="G25">
-        <v>0.002548133814659872</v>
+        <v>0.000825277658262183</v>
       </c>
       <c r="H25">
         <v>0</v>
       </c>
       <c r="I25">
-        <v>1.429702909587959</v>
+        <v>0.8930359074360084</v>
       </c>
       <c r="J25">
-        <v>0.2628454652871781</v>
+        <v>0.1934578618224307</v>
       </c>
       <c r="K25">
-        <v>0.9002956152561978</v>
+        <v>1.581843510865241</v>
       </c>
       <c r="L25">
         <v>0</v>
       </c>
       <c r="M25">
-        <v>0.4208369372125773</v>
+        <v>0.5445804895196886</v>
       </c>
       <c r="N25">
-        <v>2.84276978667279</v>
+        <v>1.502297456971704</v>
       </c>
       <c r="O25">
         <v>0</v>
